--- a/15-bubbleplot/15-bubbleplot-solution.xlsx
+++ b/15-bubbleplot/15-bubbleplot-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\15-bubbleplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE414DB-40FF-475A-9FE8-ACD3AB2D3028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7FEBD-5C65-473D-A659-CB6126446127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>

--- a/15-bubbleplot/15-bubbleplot-solution.xlsx
+++ b/15-bubbleplot/15-bubbleplot-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\15-bubbleplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B7FEBD-5C65-473D-A659-CB6126446127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEBB8F2-8225-46E0-837C-64C79767CE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -125,23 +125,18 @@
     </pythonScript>
     <pythonScript>
       <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='cylinders', alpha=.6)
-plt.title('Fuel Efficiency vs Vehicle Weight by Origin and Cylinders', pad=20)
-plt.xlabel('Weight (lbs)')
-plt.ylabel('Miles per Gallon (MPG)')</code>
+sns.regplot(data=mpg_df, x='weight', y='mpg', scatter=False, color='black')
+plt.title('Fuel efficiency vs weight by origin and cylinders')</code>
     </pythonScript>
     <pythonScript>
-      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='cylinders', alpha=.6)
-sns.regplot(data=mpg_df, x='weight', y='mpg', scatter=False, color='black')
-plt.title('Fuel Efficiency vs Vehicle Weight by Origin and Cylinders', pad=20)
-plt.xlabel('Weight (lbs)')
-plt.ylabel('Miles per Gallon (MPG)')</code>
+      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='acceleration')</code>
     </pythonScript>
   </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
   <si>
     <t>mpg</t>
   </si>
@@ -175,15 +170,12 @@
   <si>
     <t>europe</t>
   </si>
-  <si>
-    <t xml:space="preserve">https://x.com/i/grok/share/y80RUr9UC2TW0yLCdQsm35lCN </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -314,14 +306,6 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,7 +608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -667,13 +651,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -707,7 +689,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -736,22 +717,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>765810</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>518932</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>121166</xdr:rowOff>
+      <xdr:colOff>610372</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64016</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E8C0E3-3DA2-0DA0-D982-FD963098D795}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A6ABD-D33E-8F33-ABFA-D9E06032B95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -759,7 +740,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J6"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -772,7 +753,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10439400" y="1504950"/>
+          <a:off x="10119360" y="712470"/>
           <a:ext cx="5148082" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -785,22 +766,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>871538</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>521970</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>533220</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>264041</xdr:rowOff>
+      <xdr:colOff>366532</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA65FB6-E2F7-30C9-98D4-52E4E992DA74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A3DABE-646D-8786-6FAC-B4223F1865D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -808,7 +789,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J23"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J21"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -821,57 +802,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10453688" y="5915025"/>
-          <a:ext cx="5148082" cy="3950216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>185738</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>761820</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>49728</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36026408-2A8A-EBFE-2227-495C3A09394D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J44"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10682288" y="11568112"/>
-          <a:ext cx="5148082" cy="3950216"/>
+          <a:off x="9875520" y="5486400"/>
+          <a:ext cx="5148082" cy="4142240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1487,20 +1419,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="9.04296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.76953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.03515625" customWidth="1"/>
+    <col min="3" max="3" width="12.73828125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1525,11 +1457,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J1" t="e" cm="1" vm="1">
+        <f t="array" ref="J1">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1555,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1580,12 +1513,12 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="e" cm="1" vm="1">
-        <f t="array" ref="J3">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+      <c r="J3" t="e" cm="1" vm="2">
+        <f t="array" ref="J3">_xlfn._xlws.PY(1,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1611,7 +1544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1637,7 +1570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1662,12 +1595,8 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="e" cm="1" vm="2">
-        <f t="array" ref="J6">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1693,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1719,7 +1648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1745,7 +1674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1771,7 +1700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1797,7 +1726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1823,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1849,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1875,7 +1804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1901,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1927,7 +1856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1953,7 +1882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1979,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2005,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>27</v>
       </c>
@@ -2031,7 +1960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2056,8 +1985,12 @@
       <c r="H21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J21" t="e" cm="1" vm="3">
+        <f t="array" ref="J21">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2083,7 +2016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2108,12 +2041,8 @@
       <c r="H23" t="s">
         <v>10</v>
       </c>
-      <c r="J23" t="e" cm="1" vm="3">
-        <f t="array" ref="J23">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2139,7 +2068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2165,7 +2094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2191,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2217,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2243,7 +2172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2269,7 +2198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2295,7 +2224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2321,7 +2250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2347,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2373,7 +2302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2396,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2422,7 +2351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2448,7 +2377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2474,7 +2403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2500,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2526,7 +2455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2552,7 +2481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2578,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2604,7 +2533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2630,7 +2559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2660,7 +2589,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2686,7 +2615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2712,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2738,7 +2667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2764,7 +2693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2790,7 +2719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2816,7 +2745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2842,7 +2771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2868,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2894,7 +2823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2920,7 +2849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2946,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>35</v>
       </c>
@@ -2972,7 +2901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>27</v>
       </c>
@@ -2998,7 +2927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3024,7 +2953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3050,7 +2979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>25</v>
       </c>
@@ -3076,7 +3005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3102,7 +3031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3128,7 +3057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3154,7 +3083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3180,7 +3109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3206,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3232,7 +3161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3258,7 +3187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3284,7 +3213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3310,7 +3239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3336,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3362,7 +3291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3388,7 +3317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3414,7 +3343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3440,7 +3369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3466,7 +3395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3492,7 +3421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3518,7 +3447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3544,7 +3473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3570,7 +3499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3596,7 +3525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3622,7 +3551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3648,7 +3577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3674,7 +3603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3700,7 +3629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3726,7 +3655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3752,7 +3681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3778,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3804,7 +3733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3830,7 +3759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3856,7 +3785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>15</v>
       </c>
@@ -3882,7 +3811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>12</v>
       </c>
@@ -3908,7 +3837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3934,7 +3863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3960,7 +3889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3986,7 +3915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4012,7 +3941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>12</v>
       </c>
@@ -4038,7 +3967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4064,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4090,7 +4019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4116,7 +4045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4142,7 +4071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4168,7 +4097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4194,7 +4123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4220,7 +4149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4246,7 +4175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4272,7 +4201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4298,7 +4227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4324,7 +4253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4350,7 +4279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4376,7 +4305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4402,7 +4331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4428,7 +4357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4454,7 +4383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4480,7 +4409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4506,7 +4435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4532,7 +4461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4558,7 +4487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4584,7 +4513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4610,7 +4539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4636,7 +4565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4662,7 +4591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4688,7 +4617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4714,7 +4643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4740,7 +4669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4766,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4792,7 +4721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4818,7 +4747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4841,7 +4770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>19</v>
       </c>
@@ -4867,7 +4796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>15</v>
       </c>
@@ -4893,7 +4822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>31</v>
       </c>
@@ -4919,7 +4848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>26</v>
       </c>
@@ -4945,7 +4874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>32</v>
       </c>
@@ -4971,7 +4900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>25</v>
       </c>
@@ -4997,7 +4926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>16</v>
       </c>
@@ -5023,7 +4952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>16</v>
       </c>
@@ -5049,7 +4978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>18</v>
       </c>
@@ -5075,7 +5004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5101,7 +5030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5127,7 +5056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5153,7 +5082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5179,7 +5108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5205,7 +5134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5231,7 +5160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5257,7 +5186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5283,7 +5212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5309,7 +5238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5335,7 +5264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5361,7 +5290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5387,7 +5316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5413,7 +5342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5439,7 +5368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5465,7 +5394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5491,7 +5420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5517,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5543,7 +5472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5569,7 +5498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5595,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5621,7 +5550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5647,7 +5576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5673,7 +5602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5699,7 +5628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5725,7 +5654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5751,7 +5680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5777,7 +5706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5803,7 +5732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5829,7 +5758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5855,7 +5784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>13</v>
       </c>
@@ -5881,7 +5810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>29</v>
       </c>
@@ -5907,7 +5836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>23</v>
       </c>
@@ -5933,7 +5862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5959,7 +5888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>23</v>
       </c>
@@ -5985,7 +5914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>24</v>
       </c>
@@ -6011,7 +5940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>25</v>
       </c>
@@ -6037,7 +5966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>24</v>
       </c>
@@ -6063,7 +5992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6089,7 +6018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6115,7 +6044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6141,7 +6070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6167,7 +6096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>23</v>
       </c>
@@ -6193,7 +6122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>22</v>
       </c>
@@ -6219,7 +6148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6245,7 +6174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6271,7 +6200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6297,7 +6226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6323,7 +6252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6349,7 +6278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6375,7 +6304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6401,7 +6330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6427,7 +6356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6453,7 +6382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6479,7 +6408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6505,7 +6434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6531,7 +6460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>22</v>
       </c>
@@ -6557,7 +6486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6583,7 +6512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6609,7 +6538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6635,7 +6564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6661,7 +6590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6687,7 +6616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6713,7 +6642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6739,7 +6668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6765,7 +6694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6791,7 +6720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6817,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6843,7 +6772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>32</v>
       </c>
@@ -6869,7 +6798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>28</v>
       </c>
@@ -6895,7 +6824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -6921,7 +6850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>20</v>
       </c>
@@ -6947,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>13</v>
       </c>
@@ -6973,7 +6902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6999,7 +6928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>19</v>
       </c>
@@ -7025,7 +6954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -7051,7 +6980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -7077,7 +7006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7103,7 +7032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7129,7 +7058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7155,7 +7084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -7181,7 +7110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>30</v>
       </c>
@@ -7207,7 +7136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7233,7 +7162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7259,7 +7188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7285,7 +7214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7311,7 +7240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7337,7 +7266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7363,7 +7292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7389,7 +7318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7415,7 +7344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7441,7 +7370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7467,7 +7396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -7493,7 +7422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>16</v>
       </c>
@@ -7519,7 +7448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -7545,7 +7474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -7571,7 +7500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7597,7 +7526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7623,7 +7552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7649,7 +7578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7675,7 +7604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7701,7 +7630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7727,7 +7656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7753,7 +7682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7779,7 +7708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7805,7 +7734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7831,7 +7760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7857,7 +7786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -7883,7 +7812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -7909,7 +7838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -7935,7 +7864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -7961,7 +7890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -7987,7 +7916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -8013,7 +7942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -8039,7 +7968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -8065,7 +7994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -8091,7 +8020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -8117,7 +8046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -8143,7 +8072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -8169,7 +8098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -8195,7 +8124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -8221,7 +8150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8247,7 +8176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8273,7 +8202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8299,7 +8228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8325,7 +8254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -8351,7 +8280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -8377,7 +8306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -8403,7 +8332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -8429,7 +8358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -8455,7 +8384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>30</v>
       </c>
@@ -8481,7 +8410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -8507,7 +8436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -8533,7 +8462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -8559,7 +8488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8585,7 +8514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8611,7 +8540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8637,7 +8566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8663,7 +8592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8689,7 +8618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8715,7 +8644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8741,7 +8670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8767,7 +8696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8793,7 +8722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8819,7 +8748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8845,7 +8774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -8871,7 +8800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -8897,7 +8826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -8923,7 +8852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -8949,7 +8878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>17</v>
       </c>
@@ -8975,7 +8904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -9001,7 +8930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -9027,7 +8956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -9053,7 +8982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -9079,7 +9008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -9105,7 +9034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -9131,7 +9060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -9157,7 +9086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -9183,7 +9112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -9209,7 +9138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9235,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -9261,7 +9190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -9287,7 +9216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>23</v>
       </c>
@@ -9313,7 +9242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -9339,7 +9268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -9365,7 +9294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -9391,7 +9320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -9417,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -9443,7 +9372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -9469,7 +9398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -9495,7 +9424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -9521,7 +9450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -9547,7 +9476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -9573,7 +9502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9599,7 +9528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9625,7 +9554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9651,7 +9580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9677,7 +9606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9703,7 +9632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9729,7 +9658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9755,7 +9684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9781,7 +9710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9807,7 +9736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9833,7 +9762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9859,7 +9788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>37</v>
       </c>
@@ -9885,7 +9814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -9911,7 +9840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -9937,7 +9866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -9963,7 +9892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -9989,7 +9918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -10015,7 +9944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -10041,7 +9970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -10067,7 +9996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>30</v>
       </c>
@@ -10093,7 +10022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -10119,7 +10048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -10142,7 +10071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -10168,7 +10097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -10194,7 +10123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -10220,7 +10149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -10246,7 +10175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>35</v>
       </c>
@@ -10272,7 +10201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -10295,7 +10224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -10321,7 +10250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -10347,7 +10276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -10373,7 +10302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -10399,7 +10328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -10425,7 +10354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>30</v>
       </c>
@@ -10451,7 +10380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -10477,7 +10406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>39</v>
       </c>
@@ -10503,7 +10432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -10529,7 +10458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -10555,7 +10484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10581,7 +10510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10607,7 +10536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10633,7 +10562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10659,7 +10588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10685,7 +10614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10711,7 +10640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10737,7 +10666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10760,7 +10689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10786,7 +10715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10812,7 +10741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10838,7 +10767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10864,7 +10793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -10890,7 +10819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -10916,7 +10845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -10942,7 +10871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -10968,7 +10897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -10994,7 +10923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -11020,7 +10949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -11046,7 +10975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -11072,7 +11001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>28</v>
       </c>
@@ -11098,7 +11027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>27</v>
       </c>
@@ -11124,7 +11053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>34</v>
       </c>
@@ -11150,7 +11079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>31</v>
       </c>
@@ -11176,7 +11105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>29</v>
       </c>
@@ -11202,7 +11131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>27</v>
       </c>
@@ -11228,7 +11157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>24</v>
       </c>
@@ -11254,7 +11183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>23</v>
       </c>
@@ -11277,7 +11206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>36</v>
       </c>
@@ -11303,7 +11232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>37</v>
       </c>
@@ -11329,7 +11258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>31</v>
       </c>
@@ -11355,7 +11284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>38</v>
       </c>
@@ -11381,7 +11310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>36</v>
       </c>
@@ -11407,7 +11336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>36</v>
       </c>
@@ -11433,7 +11362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>36</v>
       </c>
@@ -11459,7 +11388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>34</v>
       </c>
@@ -11485,7 +11414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>38</v>
       </c>
@@ -11511,7 +11440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>32</v>
       </c>
@@ -11537,7 +11466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11563,7 +11492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11589,7 +11518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11615,7 +11544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11641,7 +11570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11667,7 +11596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11693,7 +11622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11719,7 +11648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11745,7 +11674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11771,7 +11700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11797,7 +11726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11823,7 +11752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11849,7 +11778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>31</v>
       </c>
@@ -11876,13 +11805,10 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{E0240C43-3CC2-4D22-A006-B03AA4B733CD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/15-bubbleplot/15-bubbleplot-solution.xlsx
+++ b/15-bubbleplot/15-bubbleplot-solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\15-bubbleplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DEBB8F2-8225-46E0-837C-64C79767CE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF1E8AC-98F5-4F76-AA47-0A9C7D0A8E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,11 +125,12 @@
     </pythonScript>
     <pythonScript>
       <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='cylinders', alpha=.6)
-sns.regplot(data=mpg_df, x='weight', y='mpg', scatter=False, color='black')
 plt.title('Fuel efficiency vs weight by origin and cylinders')</code>
     </pythonScript>
     <pythonScript>
-      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='acceleration')</code>
+      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='cylinders', alpha=.6)
+sns.regplot(data=mpg_df, x='weight', y='mpg', scatter=False, color='black')
+plt.title('Fuel efficiency vs weight by origin and cylinders')</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -717,22 +718,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>765810</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>872490</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>610372</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>64016</xdr:rowOff>
+      <xdr:colOff>717052</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>136406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6A6ABD-D33E-8F33-ABFA-D9E06032B95D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7B67EA-1DBB-8384-F7BA-9AB2E0DD8AB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,7 +754,56 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10119360" y="712470"/>
+          <a:off x="10226040" y="514350"/>
+          <a:ext cx="5148082" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57922</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>105926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19D59C7-6A54-89C8-CB31-25A987E2C815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J19"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10450830" y="4812030"/>
           <a:ext cx="5148082" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -766,22 +816,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>521970</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>366532</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>160790</xdr:rowOff>
+      <xdr:colOff>515122</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>96020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A3DABE-646D-8786-6FAC-B4223F1865D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABA0EDE-92F1-E782-CDB9-81AF89927C47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -789,20 +839,20 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J21"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J35"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9875520" y="5486400"/>
+          <a:off x="10024110" y="9208770"/>
           <a:ext cx="5148082" cy="4142240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1419,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
@@ -1933,6 +1983,10 @@
       <c r="H19" t="s">
         <v>8</v>
       </c>
+      <c r="J19" t="e" cm="1" vm="3">
+        <f t="array" ref="J19">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A20">
@@ -1985,10 +2039,6 @@
       <c r="H21" t="s">
         <v>10</v>
       </c>
-      <c r="J21" t="e" cm="1" vm="3">
-        <f t="array" ref="J21">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A22">
@@ -2350,6 +2400,10 @@
       <c r="H35" t="s">
         <v>8</v>
       </c>
+      <c r="J35" t="e" cm="1" vm="4">
+        <f t="array" ref="J35">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A36">
@@ -2583,10 +2637,6 @@
       </c>
       <c r="H44" t="s">
         <v>8</v>
-      </c>
-      <c r="J44" t="e" cm="1" vm="4">
-        <f t="array" ref="J44">_xlfn._xlws.PY(3,0)</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.85">

--- a/15-bubbleplot/15-bubbleplot-solution.xlsx
+++ b/15-bubbleplot/15-bubbleplot-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\15-bubbleplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF1E8AC-98F5-4F76-AA47-0A9C7D0A8E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24897540-40E6-4244-A8A3-5AAF892B1805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="15-jointplot" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -741,7 +741,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'15-jointplot'!J3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -790,7 +790,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J19"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'15-jointplot'!J19"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -839,7 +839,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J35"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'15-jointplot'!J35"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -1470,7 +1470,7 @@
   <dimension ref="A1:J399"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
